--- a/games.xlsx
+++ b/games.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="jacks" sheetId="1" r:id="rId1"/>
-    <sheet name="wild cherry" sheetId="2" r:id="rId2"/>
+    <sheet name="deuce wild" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
